--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_33_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_33_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.9996818349163, 5.7210638984647755]</t>
+          <t>[5.002042069891681, 5.718703663489395]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2390265320464247, 1.3648160276856567]</t>
+          <t>[1.2264475824825025, 1.3773949772495788]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -619,23 +619,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.055514649277711214, 0.48172297339522174]</t>
+          <t>[0.05565088272020713, 0.48158673995272583]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.01465179987871457</v>
+        <v>0.01459261203807638</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01465179987871457</v>
+        <v>0.01459261203807638</v>
       </c>
       <c r="W2" t="n">
         <v>20.61261261261335</v>
       </c>
       <c r="X2" t="n">
-        <v>20.35235235235308</v>
+        <v>20.30030030030103</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.87287287287363</v>
+        <v>20.92492492492568</v>
       </c>
     </row>
   </sheetData>
